--- a/database/seeds/csvs/candidates2023.xlsx
+++ b/database/seeds/csvs/candidates2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAMP\htdocs\evote\database\seeds\csvs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98234681-9273-49E0-A9B9-233B009B9920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B066995-A46C-4D28-9127-F5B8D99D9FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DDDF0B56-6F41-43DB-839E-7BFBD013FDF6}"/>
   </bookViews>
@@ -24298,9 +24298,6 @@
     <t>Ekonomi Islam S1</t>
   </si>
   <si>
-    <t>Manajemen S1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rakha Bagas Nusa </t>
   </si>
   <si>
@@ -24353,6 +24350,9 @@
   </si>
   <si>
     <t>https://res.cloudinary.com/dezj1x6xp/image/upload/v1700062871/Proyek%20Pemira%20Undip%202023/Seantor%20Independen/Manajemen/Christian_Dwitama_Putra_ir8rsa.png</t>
+  </si>
+  <si>
+    <t>Manajemen dan Bisnis Digital S1</t>
   </si>
 </sst>
 </file>
@@ -24808,12 +24808,12 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="72.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
@@ -24886,7 +24886,7 @@
         <v>8078</v>
       </c>
       <c r="B4" t="s">
-        <v>8084</v>
+        <v>8083</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -24898,7 +24898,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>8088</v>
+        <v>8087</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -24906,7 +24906,7 @@
         <v>8078</v>
       </c>
       <c r="B5" t="s">
-        <v>8085</v>
+        <v>8084</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -24918,7 +24918,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>8089</v>
+        <v>8088</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -24938,7 +24938,7 @@
         <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8090</v>
+        <v>8089</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -24958,7 +24958,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>8091</v>
+        <v>8090</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -24966,7 +24966,7 @@
         <v>8080</v>
       </c>
       <c r="B8" t="s">
-        <v>8082</v>
+        <v>8081</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -24978,7 +24978,7 @@
         <v>8</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>8092</v>
+        <v>8091</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -24998,15 +24998,15 @@
         <v>8</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>8093</v>
+        <v>8092</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8081</v>
+        <v>8099</v>
       </c>
       <c r="B10" t="s">
-        <v>8083</v>
+        <v>8082</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -25018,12 +25018,12 @@
         <v>8</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>8094</v>
+        <v>8093</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8081</v>
+        <v>8099</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -25058,7 +25058,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>8095</v>
+        <v>8094</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -25098,7 +25098,7 @@
         <v>8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>8096</v>
+        <v>8095</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -25126,7 +25126,7 @@
         <v>8080</v>
       </c>
       <c r="B16" t="s">
-        <v>8086</v>
+        <v>8085</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -25138,7 +25138,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>8097</v>
+        <v>8096</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -25163,7 +25163,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8081</v>
+        <v>8099</v>
       </c>
       <c r="B18" t="s">
         <v>2550</v>
@@ -25178,15 +25178,15 @@
         <v>8</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>8098</v>
+        <v>8097</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8081</v>
+        <v>8099</v>
       </c>
       <c r="B19" t="s">
-        <v>8087</v>
+        <v>8086</v>
       </c>
       <c r="C19">
         <v>2</v>
@@ -25198,7 +25198,7 @@
         <v>8</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>8099</v>
+        <v>8098</v>
       </c>
     </row>
   </sheetData>
